--- a/焦煤/eta/主焦煤价格-临汾拟合残差-焦煤煤矿+港口库存_月度数据.xlsx
+++ b/焦煤/eta/主焦煤价格-临汾拟合残差-焦煤煤矿+港口库存_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-441.4453</v>
+        <v>-58.2985</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-452.9705</v>
+        <v>-447.9618</v>
       </c>
       <c r="C3" t="n">
-        <v>-188.8599</v>
+        <v>-60.6531</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-413.6746</v>
       </c>
       <c r="C4" t="n">
-        <v>-106.1014</v>
+        <v>-107.1259</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-413.1646</v>
       </c>
       <c r="C5" t="n">
-        <v>-176.3085</v>
+        <v>-176.8828</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>-195.5239</v>
       </c>
       <c r="C6" t="n">
-        <v>-170.4122</v>
+        <v>-171.0812</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-42.8566</v>
       </c>
       <c r="C7" t="n">
-        <v>-115.4557</v>
+        <v>-116.6926</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>-186.1861</v>
       </c>
       <c r="C8" t="n">
-        <v>-113.9994</v>
+        <v>-115.1218</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-243.2767</v>
       </c>
       <c r="C9" t="n">
-        <v>-128.8456</v>
+        <v>-129.6293</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-148.8546</v>
       </c>
       <c r="C10" t="n">
-        <v>-109.912</v>
+        <v>-110.4751</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>24.8446</v>
       </c>
       <c r="C11" t="n">
-        <v>-77.7878</v>
+        <v>-78.3314</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>193.2029</v>
       </c>
       <c r="C12" t="n">
-        <v>-48.6606</v>
+        <v>-49.4337</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>140.9439</v>
       </c>
       <c r="C13" t="n">
-        <v>-50.1533</v>
+        <v>-50.9366</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>118.8355</v>
       </c>
       <c r="C14" t="n">
-        <v>-35.464</v>
+        <v>-36.2095</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>103.6398</v>
       </c>
       <c r="C15" t="n">
-        <v>-48.5892</v>
+        <v>-49.2663</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>56.4055</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.1854</v>
+        <v>-7.6823</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>39.7087</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7831</v>
+        <v>-1.2013</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-37.4429</v>
       </c>
       <c r="C18" t="n">
-        <v>-49.3921</v>
+        <v>-49.834</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>-90.57389999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-53.1048</v>
+        <v>-53.4183</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>-63.6635</v>
       </c>
       <c r="C20" t="n">
-        <v>-87.10129999999999</v>
+        <v>-87.08450000000001</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>-126.6721</v>
       </c>
       <c r="C21" t="n">
-        <v>-44.7289</v>
+        <v>-45.1746</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>-77.65130000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.1907</v>
+        <v>-11.8291</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>192.6129</v>
       </c>
       <c r="C23" t="n">
-        <v>16.7036</v>
+        <v>15.9913</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>238.5978</v>
       </c>
       <c r="C24" t="n">
-        <v>29.9018</v>
+        <v>29.2182</v>
       </c>
     </row>
     <row r="25">
